--- a/WiU_ All Rubrics 2013.xlsx
+++ b/WiU_ All Rubrics 2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16660" tabRatio="500" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="B1" sheetId="1" r:id="rId1"/>
@@ -253,16 +253,6 @@
 7. Categories Drill Down - selecting a destination from a series of hierarchal list views</t>
   </si>
   <si>
-    <t>1. Feature, Search, Browse
-2. Escape hatch
-3. Titled sections
-4. Vertical Stack
-5. Prominent “done” buttons
-6. Clear Entry Points
-7. Infinite List or List Inlay
-8. One-Window Drill Down</t>
-  </si>
-  <si>
     <t>Rubric: B5 - Usable Details Page - Desktop</t>
   </si>
   <si>
@@ -463,6 +453,138 @@
   </si>
   <si>
     <t>Your course Professionalism grade is affected by your Attendance and Participation</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Feature, Search, Browse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF274E13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>*****</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF274E13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Escape hatch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF274E13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>*****</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF274E13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Titled sections</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF274E13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>*****</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF274E13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+4. Vertical Stack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF274E13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>******</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF274E13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+5. Prominent “done” buttons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF274E13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>*****</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF274E13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+6. Clear Entry Points</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF274E13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>*****</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF274E13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+7. Infinite List or List Inlay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF274E13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>*****</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF274E13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+8. One-Window Drill Down</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF274E13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>*****</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1375,7 +1497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1466,6 +1588,18 @@
     <xf numFmtId="0" fontId="35" fillId="27" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="22" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1493,34 +1627,25 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1874,45 +1999,45 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="21"/>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1">
@@ -2018,14 +2143,14 @@
     </row>
     <row r="10" spans="1:8" ht="23.25" customHeight="1">
       <c r="A10" s="2"/>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
     </row>
     <row r="11" spans="1:8" ht="12">
       <c r="B11" s="1"/>
@@ -2075,45 +2200,45 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="21"/>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1">
@@ -2261,14 +2386,14 @@
     </row>
     <row r="12" spans="1:8" ht="23.25" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
     </row>
     <row r="13" spans="1:8" ht="12">
       <c r="B13" s="1"/>
@@ -2300,7 +2425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
@@ -2318,45 +2443,45 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="21"/>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1">
@@ -2512,7 +2637,7 @@
       <c r="C12" s="14">
         <v>20</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="30" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="13" t="s">
@@ -2546,14 +2671,14 @@
     </row>
     <row r="14" spans="1:8" ht="23.25" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
     </row>
     <row r="15" spans="1:8" ht="12">
       <c r="B15" s="1"/>
@@ -2585,9 +2710,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -2603,45 +2728,45 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="21"/>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1">
@@ -2715,7 +2840,7 @@
       <c r="C8" s="14">
         <v>20</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="49" t="s">
         <v>50</v>
       </c>
       <c r="E8" s="13"/>
@@ -2747,7 +2872,7 @@
       </c>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8" ht="131.25" customHeight="1">
+    <row r="10" spans="1:8" ht="142" customHeight="1">
       <c r="A10" s="18"/>
       <c r="B10" s="14" t="s">
         <v>42</v>
@@ -2789,7 +2914,7 @@
       </c>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" ht="71.25" customHeight="1">
+    <row r="12" spans="1:8" ht="109" customHeight="1">
       <c r="A12" s="18"/>
       <c r="B12" s="14" t="s">
         <v>32</v>
@@ -2797,8 +2922,8 @@
       <c r="C12" s="14">
         <v>20</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>51</v>
+      <c r="D12" s="30" t="s">
+        <v>103</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>34</v>
@@ -2811,7 +2936,7 @@
       </c>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" ht="54.75" customHeight="1">
+    <row r="13" spans="1:8" ht="95" customHeight="1">
       <c r="A13" s="18"/>
       <c r="B13" s="14" t="s">
         <v>18</v>
@@ -2831,14 +2956,14 @@
     </row>
     <row r="14" spans="1:8" ht="23.25" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
     </row>
     <row r="15" spans="1:8" ht="12">
       <c r="B15" s="1"/>
@@ -2888,45 +3013,45 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="21"/>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1">
@@ -3001,7 +3126,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
@@ -3083,7 +3208,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>34</v>
@@ -3116,14 +3241,14 @@
     </row>
     <row r="14" spans="1:8" ht="23.25" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
     </row>
     <row r="15" spans="1:8" ht="12">
       <c r="B15" s="1"/>
@@ -3173,45 +3298,45 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="21"/>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1">
@@ -3286,7 +3411,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
@@ -3368,7 +3493,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>34</v>
@@ -3401,14 +3526,14 @@
     </row>
     <row r="14" spans="1:8" ht="23.25" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
     </row>
     <row r="15" spans="1:8" ht="12">
       <c r="B15" s="1"/>
@@ -3458,45 +3583,45 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="21"/>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1">
@@ -3549,14 +3674,14 @@
         <v>20</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H7" s="16"/>
     </row>
@@ -3569,7 +3694,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
@@ -3609,14 +3734,14 @@
         <v>20</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" s="16"/>
     </row>
@@ -3649,7 +3774,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>34</v>
@@ -3671,7 +3796,7 @@
         <v>20</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -3682,14 +3807,14 @@
     </row>
     <row r="14" spans="1:8" ht="23.25" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
     </row>
     <row r="15" spans="1:8" ht="12">
       <c r="B15" s="1"/>
@@ -3739,45 +3864,45 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="21"/>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1">
@@ -3830,14 +3955,14 @@
         <v>20</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H7" s="16"/>
     </row>
@@ -3850,7 +3975,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
@@ -3890,14 +4015,14 @@
         <v>20</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" s="16"/>
     </row>
@@ -3930,7 +4055,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>34</v>
@@ -3952,7 +4077,7 @@
         <v>20</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -3963,14 +4088,14 @@
     </row>
     <row r="14" spans="1:8" ht="23.25" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
     </row>
     <row r="15" spans="1:8" ht="12">
       <c r="B15" s="1"/>
@@ -4017,218 +4142,218 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32" t="s">
+      <c r="B1" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="32"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="B4" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="B4" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
+      <c r="B6" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" ht="84.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="28">
         <v>15</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="24" t="s">
+      <c r="G7" s="24" t="s">
         <v>80</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>81</v>
       </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" ht="84" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="28">
         <v>15</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="43"/>
+      <c r="F8" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="24" t="s">
+      <c r="G8" s="24" t="s">
         <v>84</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>85</v>
       </c>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="61.5" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="28">
         <v>25</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="43"/>
+      <c r="F9" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="24" t="s">
+      <c r="G9" s="24" t="s">
         <v>88</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>89</v>
       </c>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" ht="71.25" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="28">
         <v>25</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="43"/>
+      <c r="F10" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="24" t="s">
+      <c r="G10" s="24" t="s">
         <v>92</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>93</v>
       </c>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="24" customHeight="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
+      <c r="B11" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" ht="50.25" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="28">
         <v>15</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E12" s="46"/>
       <c r="F12" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="25" t="s">
         <v>97</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>98</v>
       </c>
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" ht="39.75" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="28">
         <v>5</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="46"/>
       <c r="F13" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="25" t="s">
         <v>101</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>102</v>
       </c>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" ht="23.25" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14" s="47"/>
       <c r="D14" s="47"/>
@@ -4247,21 +4372,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/WiU_ All Rubrics 2013.xlsx
+++ b/WiU_ All Rubrics 2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16660" tabRatio="500" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16660" tabRatio="500" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="B1" sheetId="1" r:id="rId1"/>
@@ -1591,6 +1591,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="21" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1627,12 +1630,15 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1641,12 +1647,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1999,45 +1999,45 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="21"/>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="37"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1">
@@ -2143,14 +2143,14 @@
     </row>
     <row r="10" spans="1:8" ht="23.25" customHeight="1">
       <c r="A10" s="2"/>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="12">
       <c r="B11" s="1"/>
@@ -2200,45 +2200,45 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="21"/>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="37"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1">
@@ -2386,14 +2386,14 @@
     </row>
     <row r="12" spans="1:8" ht="23.25" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
     </row>
     <row r="13" spans="1:8" ht="12">
       <c r="B13" s="1"/>
@@ -2443,45 +2443,45 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="21"/>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="37"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1">
@@ -2671,14 +2671,14 @@
     </row>
     <row r="14" spans="1:8" ht="23.25" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:8" ht="12">
       <c r="B15" s="1"/>
@@ -2710,7 +2710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
@@ -2728,45 +2728,45 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="21"/>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="37"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1">
@@ -2840,7 +2840,7 @@
       <c r="C8" s="14">
         <v>20</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="31" t="s">
         <v>50</v>
       </c>
       <c r="E8" s="13"/>
@@ -2956,14 +2956,14 @@
     </row>
     <row r="14" spans="1:8" ht="23.25" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:8" ht="12">
       <c r="B15" s="1"/>
@@ -2995,7 +2995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
@@ -3013,45 +3013,45 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="21"/>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="37"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8" ht="90.75" customHeight="1">
+    <row r="8" spans="1:8" ht="115" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="5" t="s">
         <v>12</v>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8" ht="131.25" customHeight="1">
+    <row r="10" spans="1:8" ht="140" customHeight="1">
       <c r="A10" s="18"/>
       <c r="B10" s="14" t="s">
         <v>42</v>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" ht="71.25" customHeight="1">
+    <row r="12" spans="1:8" ht="107" customHeight="1">
       <c r="A12" s="18"/>
       <c r="B12" s="14" t="s">
         <v>32</v>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" ht="54.75" customHeight="1">
+    <row r="13" spans="1:8" ht="79" customHeight="1">
       <c r="A13" s="18"/>
       <c r="B13" s="14" t="s">
         <v>18</v>
@@ -3241,14 +3241,14 @@
     </row>
     <row r="14" spans="1:8" ht="23.25" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:8" ht="12">
       <c r="B15" s="1"/>
@@ -3298,45 +3298,45 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="21"/>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="37"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1">
@@ -3526,14 +3526,14 @@
     </row>
     <row r="14" spans="1:8" ht="23.25" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:8" ht="12">
       <c r="B15" s="1"/>
@@ -3583,45 +3583,45 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="21"/>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="37"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1">
@@ -3807,14 +3807,14 @@
     </row>
     <row r="14" spans="1:8" ht="23.25" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:8" ht="12">
       <c r="B15" s="1"/>
@@ -3864,45 +3864,45 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="21"/>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="37"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1">
@@ -4088,14 +4088,14 @@
     </row>
     <row r="14" spans="1:8" ht="23.25" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:8" ht="12">
       <c r="B15" s="1"/>
@@ -4142,47 +4142,47 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="36"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1">
       <c r="A5" s="2"/>
@@ -4208,14 +4208,14 @@
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" ht="84.75" customHeight="1">
@@ -4226,10 +4226,10 @@
       <c r="C7" s="28">
         <v>15</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="43"/>
+      <c r="E7" s="46"/>
       <c r="F7" s="24" t="s">
         <v>79</v>
       </c>
@@ -4246,10 +4246,10 @@
       <c r="C8" s="28">
         <v>15</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="43"/>
+      <c r="E8" s="46"/>
       <c r="F8" s="24" t="s">
         <v>83</v>
       </c>
@@ -4266,10 +4266,10 @@
       <c r="C9" s="28">
         <v>25</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="43"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="24" t="s">
         <v>87</v>
       </c>
@@ -4286,10 +4286,10 @@
       <c r="C10" s="28">
         <v>25</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="43"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="24" t="s">
         <v>91</v>
       </c>
@@ -4300,14 +4300,14 @@
     </row>
     <row r="11" spans="1:8" ht="24" customHeight="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" ht="50.25" customHeight="1">
@@ -4318,10 +4318,10 @@
       <c r="C12" s="28">
         <v>15</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="46"/>
+      <c r="E12" s="48"/>
       <c r="F12" s="25" t="s">
         <v>96</v>
       </c>
@@ -4338,10 +4338,10 @@
       <c r="C13" s="28">
         <v>5</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="46"/>
+      <c r="E13" s="48"/>
       <c r="F13" s="25" t="s">
         <v>100</v>
       </c>
@@ -4352,14 +4352,14 @@
     </row>
     <row r="14" spans="1:8" ht="23.25" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" ht="12">
@@ -4372,21 +4372,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:G14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
